--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H2">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N2">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O2">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P2">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q2">
-        <v>19.69242848842222</v>
+        <v>133.7858885114318</v>
       </c>
       <c r="R2">
-        <v>177.2318563958</v>
+        <v>1204.072996602886</v>
       </c>
       <c r="S2">
-        <v>0.01256210542653604</v>
+        <v>0.02890348585046487</v>
       </c>
       <c r="T2">
-        <v>0.01256210542653603</v>
+        <v>0.02890348585046487</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H3">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P3">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q3">
-        <v>141.1621409393089</v>
+        <v>1945.787496591513</v>
       </c>
       <c r="R3">
-        <v>1270.45926845378</v>
+        <v>17512.08746932362</v>
       </c>
       <c r="S3">
-        <v>0.09004951815657021</v>
+        <v>0.4203734938078962</v>
       </c>
       <c r="T3">
-        <v>0.0900495181565702</v>
+        <v>0.4203734938078962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H4">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P4">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q4">
-        <v>93.39547689437779</v>
+        <v>1287.368907626682</v>
       </c>
       <c r="R4">
-        <v>840.5592920494001</v>
+        <v>11586.32016864014</v>
       </c>
       <c r="S4">
-        <v>0.05957842263073698</v>
+        <v>0.2781268594163931</v>
       </c>
       <c r="T4">
-        <v>0.05957842263073698</v>
+        <v>0.2781268594163931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.318999</v>
       </c>
       <c r="I5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N5">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O5">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P5">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q5">
-        <v>32.17470595985444</v>
+        <v>15.85800114988144</v>
       </c>
       <c r="R5">
-        <v>289.5723536386899</v>
+        <v>142.722010348933</v>
       </c>
       <c r="S5">
-        <v>0.02052474373961138</v>
+        <v>0.003426007906753847</v>
       </c>
       <c r="T5">
-        <v>0.02052474373961138</v>
+        <v>0.003426007906753846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.318999</v>
       </c>
       <c r="I6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P6">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q6">
         <v>230.6394246934088</v>
@@ -818,10 +818,10 @@
         <v>2075.754822240679</v>
       </c>
       <c r="S6">
-        <v>0.1471284646389673</v>
+        <v>0.04982800071336129</v>
       </c>
       <c r="T6">
-        <v>0.1471284646389673</v>
+        <v>0.04982800071336129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.318999</v>
       </c>
       <c r="I7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P7">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q7">
         <v>152.5952986866856</v>
@@ -880,10 +880,10 @@
         <v>1373.35768818017</v>
       </c>
       <c r="S7">
-        <v>0.09734290673305807</v>
+        <v>0.03296712460119591</v>
       </c>
       <c r="T7">
-        <v>0.09734290673305807</v>
+        <v>0.03296712460119591</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.921413</v>
       </c>
       <c r="I8">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J8">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.750436666666666</v>
+        <v>2.341355666666667</v>
       </c>
       <c r="N8">
-        <v>14.25131</v>
+        <v>7.024067000000001</v>
       </c>
       <c r="O8">
-        <v>0.07745299862590357</v>
+        <v>0.03973512964576821</v>
       </c>
       <c r="P8">
-        <v>0.07745299862590357</v>
+        <v>0.0397351296457682</v>
       </c>
       <c r="Q8">
-        <v>69.54863025566999</v>
+        <v>34.278549738519</v>
       </c>
       <c r="R8">
-        <v>625.93767230103</v>
+        <v>308.5069476466711</v>
       </c>
       <c r="S8">
-        <v>0.04436614945975616</v>
+        <v>0.00740563588854949</v>
       </c>
       <c r="T8">
-        <v>0.04436614945975616</v>
+        <v>0.00740563588854949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.921413</v>
       </c>
       <c r="I9">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J9">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>102.158321</v>
       </c>
       <c r="O9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="P9">
-        <v>0.5552098927072401</v>
+        <v>0.5779093692199981</v>
       </c>
       <c r="Q9">
-        <v>498.5486453363971</v>
+        <v>498.548645336397</v>
       </c>
       <c r="R9">
-        <v>4486.937808027574</v>
+        <v>4486.937808027573</v>
       </c>
       <c r="S9">
-        <v>0.3180319099117026</v>
+        <v>0.1077078746987406</v>
       </c>
       <c r="T9">
-        <v>0.3180319099117027</v>
+        <v>0.1077078746987406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.921413</v>
       </c>
       <c r="I10">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J10">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>67.58983000000001</v>
       </c>
       <c r="O10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="P10">
-        <v>0.3673371086668564</v>
+        <v>0.3823555011342337</v>
       </c>
       <c r="Q10">
         <v>329.84898200331</v>
@@ -1066,10 +1066,10 @@
         <v>2968.64083802979</v>
       </c>
       <c r="S10">
-        <v>0.2104157793030613</v>
+        <v>0.07126151711664466</v>
       </c>
       <c r="T10">
-        <v>0.2104157793030614</v>
+        <v>0.07126151711664468</v>
       </c>
     </row>
   </sheetData>
